--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-214993.7724421477</v>
+        <v>-217457.8358858531</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>65.33825739391169</v>
       </c>
       <c r="H2" t="n">
-        <v>158.1556649146134</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>76.19387642248125</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>253.1812998841031</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>155.5011987693474</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>283.9746808062644</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>139.4881144206588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>64.19121916797491</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>319.3908819388041</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,13 +1190,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.29212650174304</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>164.9794731298061</v>
       </c>
       <c r="U10" t="n">
-        <v>177.6417379263234</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>1.207068174442234</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>98.95095262166193</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>49.33251894259001</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699795</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.294712846222</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053484</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>28.75188085812371</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712593</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>36.43062059490515</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>27.31547498186517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1381.278680221569</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1012.316163281157</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>654.0504646744068</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E2" t="n">
-        <v>268.2622120761626</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F2" t="n">
-        <v>268.2622120761626</v>
+        <v>174.5072549845447</v>
       </c>
       <c r="G2" t="n">
-        <v>268.2622120761626</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792697</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522582</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261502</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1767.878520285691</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>588.3953084626825</v>
+        <v>2076.983346573156</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>1908.047163645249</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>1757.930524232913</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>1757.930524232913</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.594608541191</v>
+        <v>3069.867134857551</v>
       </c>
       <c r="V4" t="n">
-        <v>1326.594608541191</v>
+        <v>2815.182646651664</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.17743850423</v>
+        <v>2525.765476614703</v>
       </c>
       <c r="X4" t="n">
-        <v>809.1878876062126</v>
+        <v>2297.775925716686</v>
       </c>
       <c r="Y4" t="n">
-        <v>588.3953084626825</v>
+        <v>2076.983346573156</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694473</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D5" t="n">
-        <v>764.3411331473105</v>
+        <v>581.1420803965862</v>
       </c>
       <c r="E5" t="n">
-        <v>764.3411331473105</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>353.355228357703</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>452.6479724696239</v>
+        <v>460.8443805240842</v>
       </c>
       <c r="C7" t="n">
-        <v>452.6479724696239</v>
+        <v>460.8443805240842</v>
       </c>
       <c r="D7" t="n">
-        <v>452.6479724696239</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>304.7348788872308</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>304.7348788872308</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4720,7 +4720,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4759,16 +4759,16 @@
         <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696239</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y7" t="n">
-        <v>452.6479724696239</v>
+        <v>642.4928453543239</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1642.972675199009</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1642.972675199009</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2697.936093944079</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.57251526313</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y8" t="n">
-        <v>2029.57251526313</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>754.9746608886195</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1670.818158391671</v>
       </c>
       <c r="U10" t="n">
-        <v>1747.858449173015</v>
+        <v>1381.715291517315</v>
       </c>
       <c r="V10" t="n">
-        <v>1493.173960967128</v>
+        <v>1381.715291517315</v>
       </c>
       <c r="W10" t="n">
-        <v>1203.756790930167</v>
+        <v>1092.298121480354</v>
       </c>
       <c r="X10" t="n">
-        <v>975.7672400321496</v>
+        <v>864.3085705823368</v>
       </c>
       <c r="Y10" t="n">
-        <v>754.9746608886195</v>
+        <v>643.5159914388066</v>
       </c>
     </row>
     <row r="11">
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>913.2907898186992</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186992</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5194,55 +5194,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2445.743822797996</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2226.142357820936</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1937.067131165134</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359457</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138415</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3584617859347</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297694</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764187988</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057719</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189236</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533434</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327547</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290586</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925687</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490386</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,55 +5726,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400749</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400749</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400749</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487571</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510512</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.38585385471</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648823</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611862</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138447</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703146</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>120.6800663848338</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7151,61 +7151,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,16 +7245,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2410.164476918741</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2190.563011941682</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,37 +7397,37 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075802</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,13 +7807,13 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.308775558570233e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>379.3912261231869</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>108.9256658141054</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>345.5834682595417</v>
       </c>
       <c r="H2" t="n">
-        <v>136.452099472707</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012034</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>179.8192178272024</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>119.6337007304329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>99.28295407562234</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.2652634529517</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.2291039219399</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>117.6820817884455</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038532</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>144.5956654067394</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>191.2691783702296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1018289.202247516</v>
+        <v>1018289.202247517</v>
       </c>
     </row>
     <row r="3">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1120805.565943981</v>
+        <v>1120805.56594398</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1120805.56594398</v>
+        <v>1120805.565943981</v>
       </c>
     </row>
     <row r="12">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028985</v>
+        <v>274720.9666028984</v>
       </c>
       <c r="C2" t="n">
+        <v>307890.6636991062</v>
+      </c>
+      <c r="D2" t="n">
         <v>307890.6636991061</v>
       </c>
-      <c r="D2" t="n">
-        <v>307890.6636991062</v>
-      </c>
       <c r="E2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="F2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="G2" t="n">
         <v>302679.9748837523</v>
       </c>
-      <c r="F2" t="n">
-        <v>302679.9748837523</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>302679.9748837522</v>
-      </c>
-      <c r="H2" t="n">
-        <v>302679.9748837523</v>
       </c>
       <c r="I2" t="n">
         <v>302679.9748837522</v>
@@ -26341,19 +26341,19 @@
         <v>302679.9748837522</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="N2" t="n">
         <v>302679.9748837524</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991058</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363192</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40478.22163059714</v>
+        <v>40478.22163059753</v>
       </c>
       <c r="C4" t="n">
         <v>90964.01098815708</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26442,19 +26442,19 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
+        <v>11776.97621680587</v>
+      </c>
+      <c r="L4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11776.97621680577</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="P4" t="n">
         <v>19767.83547989928</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1202435.941316685</v>
+        <v>-1202657.07263066</v>
       </c>
       <c r="C6" t="n">
-        <v>108992.712149556</v>
+        <v>108992.7121495558</v>
       </c>
       <c r="D6" t="n">
         <v>108992.7121495558</v>
       </c>
       <c r="E6" t="n">
-        <v>-135631.9929643162</v>
+        <v>-135666.7308897515</v>
       </c>
       <c r="F6" t="n">
-        <v>189780.4688430395</v>
+        <v>189745.7309176036</v>
       </c>
       <c r="G6" t="n">
-        <v>189780.4688430393</v>
+        <v>189745.7309176037</v>
       </c>
       <c r="H6" t="n">
-        <v>189780.4688430394</v>
+        <v>189745.7309176035</v>
       </c>
       <c r="I6" t="n">
-        <v>189780.4688430392</v>
+        <v>189745.7309176034</v>
       </c>
       <c r="J6" t="n">
-        <v>-27750.73355423805</v>
+        <v>-27785.47147967388</v>
       </c>
       <c r="K6" t="n">
-        <v>189780.4688430391</v>
+        <v>189745.7309176037</v>
       </c>
       <c r="L6" t="n">
-        <v>189780.4688430393</v>
+        <v>189745.7309176037</v>
       </c>
       <c r="M6" t="n">
-        <v>104725.4409075275</v>
+        <v>104690.702982092</v>
       </c>
       <c r="N6" t="n">
-        <v>189780.4688430394</v>
+        <v>189745.7309176037</v>
       </c>
       <c r="O6" t="n">
-        <v>189780.4688430393</v>
+        <v>189745.7309176036</v>
       </c>
       <c r="P6" t="n">
-        <v>165530.9943716594</v>
+        <v>165530.9943716595</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,43 +26787,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,28 +26978,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3.34261554029365</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>297.950379927606</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>91.05294467614658</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>33.03053832150979</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>226.4291713029144</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>126.9470448471891</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>26.53769383836942</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>154.3934341841199</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>35.29215968187884</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.4601319683919</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>54.56947614636312</v>
       </c>
       <c r="U10" t="n">
-        <v>108.5701002792895</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.063335606431577e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>477.8500485393205</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>225.4828684302374</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>153.9723775119818</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,13 +34442,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>339.2956687594463</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191345</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>82.88662398579301</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>27.1347508453151</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
